--- a/Threshold/Fe/2His_1Asp/5.xlsx
+++ b/Threshold/Fe/2His_1Asp/5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Fe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9666D3BE-36F9-4A11-A4C7-18D270B14E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED2C3BB-A512-4522-846A-82C14ADC84B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="C2" s="2">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>4.3</v>
       </c>
       <c r="C3" s="2">
-        <v>10.4</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="2">
         <v>1.5</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Fe/2His_1Asp/5.xlsx
+++ b/Threshold/Fe/2His_1Asp/5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Fe\2His_1Asp\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Fe_2His_1Asp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED2C3BB-A512-4522-846A-82C14ADC84B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E123A6-1176-4C65-BB84-D6D221692EC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>10.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>9.6999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
